--- a/schwabenkinder_bevölkerungsstatistik_1880.xlsx
+++ b/schwabenkinder_bevölkerungsstatistik_1880.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quqiu\PycharmProjects\schwabenkinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E202F6A4-366D-4A71-B92A-6F351F9E40B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8700997-ED87-48D5-9C44-08572B3290C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13665" yWindow="1005" windowWidth="14640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="540" windowWidth="16500" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bevölkerungsstatistik 1880" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="389">
   <si>
     <t>Bundesland</t>
   </si>
@@ -1196,6 +1195,9 @@
   </si>
   <si>
     <t>Lon.</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
   </si>
 </sst>
 </file>
@@ -1263,12 +1265,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1319,12 +1324,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F1D7E50-E3D1-40FF-ACF9-1872D11BE824}" name="Tabelle2" displayName="Tabelle2" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:I1048576" xr:uid="{6F1D7E50-E3D1-40FF-ACF9-1872D11BE824}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F1D7E50-E3D1-40FF-ACF9-1872D11BE824}" name="Tabelle2" displayName="Tabelle2" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:J1048576" xr:uid="{6F1D7E50-E3D1-40FF-ACF9-1872D11BE824}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I376">
     <sortCondition ref="D1:D1048576"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{BE60990D-0718-48C9-8894-5B71E7408C49}" name="Bundesland"/>
     <tableColumn id="2" xr3:uid="{BA0BE63D-1366-4AF2-9F57-34A3204AA5FE}" name="Regierungsbezirk"/>
     <tableColumn id="3" xr3:uid="{17966E21-07D0-4E7A-83D0-A8DE56ABBF9A}" name="Gemeinde"/>
@@ -1334,6 +1339,7 @@
     <tableColumn id="7" xr3:uid="{92C0C90E-4D18-4257-A62E-567C8337E526}" name="Geoname-ID"/>
     <tableColumn id="8" xr3:uid="{4A65B4EC-C930-465B-9EDF-D7B5B857A7B9}" name="Lat."/>
     <tableColumn id="9" xr3:uid="{E41509CA-D4C0-4FD0-A182-07DF95EB9AEF}" name="Lon."/>
+    <tableColumn id="10" xr3:uid="{39CD2D23-9F40-424D-BA63-74D2132D8A08}" name="Spalte1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1624,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I376"/>
+  <dimension ref="A1:J376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1649,7 @@
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1671,8 +1677,11 @@
       <c r="I1" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -1700,8 +1709,12 @@
       <c r="I2">
         <v>11.38158</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>SUM(F2:F280)</f>
+        <v>244736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -1730,7 +1743,7 @@
         <v>10.76402</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1759,7 +1772,7 @@
         <v>10.886990000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -1788,7 +1801,7 @@
         <v>10.66977</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -1817,7 +1830,7 @@
         <v>10.700290000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -1846,7 +1859,7 @@
         <v>10.7689</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -1875,7 +1888,7 @@
         <v>10.79232</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -1904,7 +1917,7 @@
         <v>10.77515</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -1933,7 +1946,7 @@
         <v>10.966670000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -1962,7 +1975,7 @@
         <v>10.97353</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1991,7 +2004,7 @@
         <v>10.68125</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -2020,7 +2033,7 @@
         <v>10.94631</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -2049,7 +2062,7 @@
         <v>10.817069999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2078,7 +2091,7 @@
         <v>10.93333</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -12553,16 +12566,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866C1E3A-843D-492F-BAB5-02A3D41DB54B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>